--- a/Library_benchmark/Resource/BookEPPLUS.xlsx
+++ b/Library_benchmark/Resource/BookEPPLUS.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>EPPLUS</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +31,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +65,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55,6 +77,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>536432</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="net.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104776" y="76200"/>
+          <a:ext cx="1041256" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,36 +407,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:15">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:O6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Library_benchmark/Resource/BookEPPLUS.xlsx
+++ b/Library_benchmark/Resource/BookEPPLUS.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23,7 +23,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="72"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,11 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:O6"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O6"/>
+      <selection activeCell="A8" sqref="A8:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:15">
+    <row r="1" spans="1:26">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +440,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="3:15">
+    <row r="2" spans="1:26">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -447,7 +455,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="3:15">
+    <row r="3" spans="1:26">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -462,7 +470,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="3:15">
+    <row r="4" spans="1:26">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -477,7 +485,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="3:15">
+    <row r="5" spans="1:26">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -492,7 +500,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="1:26">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -507,6 +515,34 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:O6"/>
